--- a/要件、基本設計、詳細設計.xlsx
+++ b/要件、基本設計、詳細設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\4月5日提出分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEEE61-3EA5-40B0-9FDF-96A8F7787509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE29F20-4F43-4651-8A31-C3F80EB5183A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6097A984-088B-4080-BCB6-A47DA33A0AC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6097A984-088B-4080-BCB6-A47DA33A0AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>質問登録（エクセル）</t>
     <rPh sb="0" eb="2">
@@ -382,37 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関数の外出し（別ファイルに関数を記載して複数個所で利用）</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライブラリのrandomを利用。pandasを利用したExcelの操作</t>
     <rPh sb="13" eb="15">
       <t>リヨウ</t>
@@ -11811,7 +11780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4249B4-1C1D-4FF9-ADC7-753522A26073}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11880,7 +11849,7 @@
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11933,7 +11902,7 @@
   <dimension ref="B2:H135"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12406,9 +12375,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B555C28-20FD-4D73-AE68-A509078FFD8D}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12512,7 +12483,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
@@ -12540,7 +12511,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
@@ -12551,28 +12522,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
